--- a/TNR_JDD/JDD.FA.CSV.xlsx
+++ b/TNR_JDD/JDD.FA.CSV.xlsx
@@ -13,7 +13,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="nQumTbmPHEkEBeRRUizeCG3TWEsLsHJjDEM5d8a93vo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="zLARg5FUtjYHUmye5dSNdSHIQhKz/QBQdVeAnIjrXJ4="/>
     </ext>
   </extLst>
 </workbook>
@@ -82,14 +82,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miZ5nOGr40tmDG6xZinutNhWTMsVA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhIObV5U4U7kkdHr4qlHEY7Y398Ig=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="160">
   <si>
     <t>Date</t>
   </si>
@@ -551,6 +551,12 @@
   </si>
   <si>
     <t>FOREIGNKEY</t>
+  </si>
+  <si>
+    <t>INTERNALVALUE</t>
+  </si>
+  <si>
+    <t>CRITICITE</t>
   </si>
   <si>
     <t>SEQUENCE</t>
@@ -780,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -846,6 +852,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="8" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="8" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -6855,10 +6864,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1.0" ySplit="7.0" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+      <selection activeCell="A8" sqref="A8" pane="bottomLeft"/>
+      <selection activeCell="B8" sqref="B8" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -6866,6 +6875,7 @@
     <col customWidth="1" min="1" max="1" width="31.88"/>
     <col customWidth="1" min="2" max="2" width="20.75"/>
     <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col customWidth="1" min="28" max="28" width="17.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -7090,8 +7100,8 @@
       <c r="U2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="25" t="s">
-        <v>9</v>
+      <c r="V2" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="W2" s="25" t="s">
         <v>9</v>
@@ -7343,162 +7353,62 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="25" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="X4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ4" s="25" t="s">
-        <v>9</v>
-      </c>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
+      <c r="AR4" s="25"/>
+      <c r="AS4" s="25"/>
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="25"/>
+      <c r="AV4" s="25"/>
+      <c r="AW4" s="25"/>
+      <c r="AX4" s="25"/>
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="25"/>
     </row>
     <row r="5">
       <c r="A5" s="25" t="s">
@@ -7511,19 +7421,19 @@
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>9</v>
-      </c>
       <c r="G5" s="25" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>9</v>
@@ -7547,918 +7457,1075 @@
         <v>9</v>
       </c>
       <c r="P5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ5" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="Q5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="X5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ5" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="B6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ6" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="27"/>
+      <c r="E6" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ6" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ7" s="27" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="27"/>
+      <c r="A15" s="28"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="27"/>
+      <c r="A19" s="28"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="27"/>
+      <c r="A23" s="28"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="27"/>
+      <c r="A24" s="28"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="27"/>
+      <c r="A25" s="28"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="27"/>
+      <c r="A26" s="28"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="27"/>
+      <c r="A27" s="28"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="27"/>
+      <c r="A28" s="28"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="27"/>
+      <c r="A29" s="28"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="27"/>
+      <c r="A30" s="28"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="27"/>
+      <c r="A31" s="28"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="27"/>
+      <c r="A32" s="28"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="27"/>
+      <c r="A33" s="28"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="27"/>
+      <c r="A34" s="28"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="27"/>
+      <c r="A35" s="28"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="27"/>
+      <c r="A36" s="28"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="27"/>
+      <c r="A37" s="28"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="27"/>
+      <c r="A38" s="28"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="27"/>
+      <c r="A39" s="28"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="27"/>
+      <c r="A40" s="28"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="27"/>
+      <c r="A41" s="28"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="27"/>
+      <c r="A42" s="28"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="27"/>
+      <c r="A43" s="28"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="27"/>
+      <c r="A44" s="28"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="27"/>
+      <c r="A45" s="28"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="27"/>
+      <c r="A46" s="28"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="27"/>
+      <c r="A47" s="28"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="27"/>
+      <c r="A48" s="28"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="27"/>
+      <c r="A49" s="28"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="27"/>
+      <c r="A50" s="28"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="27"/>
+      <c r="A51" s="28"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="27"/>
+      <c r="A52" s="28"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="27"/>
+      <c r="A53" s="28"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="27"/>
+      <c r="A54" s="28"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="27"/>
+      <c r="A55" s="28"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="27"/>
+      <c r="A56" s="28"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="27"/>
+      <c r="A57" s="28"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="27"/>
+      <c r="A58" s="28"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="27"/>
+      <c r="A59" s="28"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="27"/>
+      <c r="A60" s="28"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="27"/>
+      <c r="A61" s="28"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="27"/>
+      <c r="A62" s="28"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="27"/>
+      <c r="A63" s="28"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="27"/>
+      <c r="A64" s="28"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="27"/>
+      <c r="A65" s="28"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="27"/>
+      <c r="A66" s="28"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="27"/>
+      <c r="A67" s="28"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="27"/>
+      <c r="A68" s="28"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="27"/>
+      <c r="A69" s="28"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="27"/>
+      <c r="A70" s="28"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="27"/>
+      <c r="A71" s="28"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="27"/>
+      <c r="A72" s="28"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="27"/>
+      <c r="A73" s="28"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="27"/>
+      <c r="A74" s="28"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="27"/>
+      <c r="A75" s="28"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="27"/>
+      <c r="A76" s="28"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="27"/>
+      <c r="A77" s="28"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="27"/>
+      <c r="A78" s="28"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="27"/>
+      <c r="A79" s="28"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="27"/>
+      <c r="A80" s="28"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="27"/>
+      <c r="A81" s="28"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="27"/>
+      <c r="A82" s="28"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="27"/>
+      <c r="A83" s="28"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="27"/>
+      <c r="A84" s="28"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="27"/>
+      <c r="A85" s="28"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="27"/>
+      <c r="A86" s="28"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="27"/>
+      <c r="A87" s="28"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="27"/>
+      <c r="A88" s="28"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="27"/>
+      <c r="A89" s="28"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="27"/>
+      <c r="A90" s="28"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="27"/>
+      <c r="A91" s="28"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="27"/>
+      <c r="A92" s="28"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="27"/>
+      <c r="A93" s="28"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="27"/>
+      <c r="A94" s="28"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="27"/>
+      <c r="A95" s="28"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="27"/>
+      <c r="A96" s="28"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="27"/>
+      <c r="A97" s="28"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="27"/>
+      <c r="A98" s="28"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="27"/>
+      <c r="A99" s="28"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="27"/>
+      <c r="A100" s="28"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="27"/>
+      <c r="A101" s="28"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="27"/>
+      <c r="A102" s="28"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="27"/>
+      <c r="A103" s="28"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="27"/>
+      <c r="A104" s="28"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="27"/>
+      <c r="A105" s="28"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="27"/>
+      <c r="A106" s="28"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="27"/>
+      <c r="A107" s="28"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="27"/>
+      <c r="A108" s="28"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="27"/>
+      <c r="A109" s="28"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="27"/>
+      <c r="A110" s="28"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="27"/>
+      <c r="A111" s="28"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="27"/>
+      <c r="A112" s="28"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="27"/>
+      <c r="A113" s="28"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="27"/>
+      <c r="A114" s="28"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="27"/>
+      <c r="A115" s="28"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="27"/>
+      <c r="A116" s="28"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="27"/>
+      <c r="A117" s="28"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="27"/>
+      <c r="A118" s="28"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="27"/>
+      <c r="A119" s="28"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="27"/>
+      <c r="A120" s="28"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="27"/>
+      <c r="A121" s="28"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="27"/>
+      <c r="A122" s="28"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="27"/>
+      <c r="A123" s="28"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="27"/>
+      <c r="A124" s="28"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="27"/>
+      <c r="A125" s="28"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="27"/>
+      <c r="A126" s="28"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="27"/>
+      <c r="A127" s="28"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="27"/>
+      <c r="A128" s="28"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="27"/>
+      <c r="A129" s="28"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="27"/>
+      <c r="A130" s="28"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="27"/>
+      <c r="A131" s="28"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="27"/>
+      <c r="A132" s="28"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="27"/>
+      <c r="A133" s="28"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="27"/>
+      <c r="A134" s="28"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="27"/>
+      <c r="A135" s="28"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="27"/>
+      <c r="A136" s="28"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="27"/>
+      <c r="A137" s="28"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="27"/>
+      <c r="A138" s="28"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="27"/>
+      <c r="A139" s="28"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="27"/>
+      <c r="A140" s="28"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="27"/>
+      <c r="A141" s="28"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="27"/>
+      <c r="A142" s="28"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="27"/>
+      <c r="A143" s="28"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="27"/>
+      <c r="A144" s="28"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="27"/>
+      <c r="A145" s="28"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="27"/>
+      <c r="A146" s="28"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="27"/>
+      <c r="A147" s="28"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="27"/>
+      <c r="A148" s="28"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="27"/>
+      <c r="A149" s="28"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="27"/>
+      <c r="A150" s="28"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="27"/>
+      <c r="A151" s="28"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="27"/>
+      <c r="A152" s="28"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="27"/>
+      <c r="A153" s="28"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="27"/>
+      <c r="A154" s="28"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="27"/>
+      <c r="A155" s="28"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="27"/>
+      <c r="A156" s="28"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="27"/>
+      <c r="A157" s="28"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="27"/>
+      <c r="A158" s="28"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="27"/>
+      <c r="A159" s="28"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="27"/>
+      <c r="A160" s="28"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="27"/>
+      <c r="A161" s="28"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="27"/>
+      <c r="A162" s="28"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="27"/>
+      <c r="A163" s="28"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="27"/>
+      <c r="A164" s="28"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="27"/>
+      <c r="A165" s="28"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="27"/>
+      <c r="A166" s="28"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="27"/>
+      <c r="A167" s="28"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="27"/>
+      <c r="A168" s="28"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="27"/>
+      <c r="A169" s="28"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="27"/>
+      <c r="A170" s="28"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="27"/>
+      <c r="A171" s="28"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="27"/>
+      <c r="A172" s="28"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="27"/>
+      <c r="A173" s="28"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="27"/>
+      <c r="A174" s="28"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="27"/>
+      <c r="A175" s="28"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="27"/>
+      <c r="A176" s="28"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="27"/>
+      <c r="A177" s="28"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="27"/>
+      <c r="A178" s="28"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="27"/>
+      <c r="A179" s="28"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="27"/>
+      <c r="A180" s="28"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="27"/>
+      <c r="A181" s="28"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="27"/>
+      <c r="A182" s="28"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="27"/>
+      <c r="A183" s="28"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="27"/>
+      <c r="A184" s="28"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="27"/>
+      <c r="A185" s="28"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="27"/>
+      <c r="A186" s="28"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="27"/>
+      <c r="A187" s="28"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="27"/>
+      <c r="A188" s="28"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="27"/>
+      <c r="A189" s="28"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="27"/>
+      <c r="A190" s="28"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="27"/>
+      <c r="A191" s="28"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="27"/>
+      <c r="A192" s="28"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="27"/>
+      <c r="A193" s="28"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="27"/>
+      <c r="A194" s="28"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="27"/>
+      <c r="A195" s="28"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="27"/>
+      <c r="A196" s="28"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="27"/>
+      <c r="A197" s="28"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="27"/>
+      <c r="A198" s="28"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="27"/>
+      <c r="A199" s="28"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="27"/>
+      <c r="A200" s="28"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="27"/>
+      <c r="A201" s="28"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="27"/>
+      <c r="A202" s="28"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="27"/>
+      <c r="A203" s="28"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="27"/>
+      <c r="A204" s="28"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="27"/>
+      <c r="A205" s="28"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="27"/>
+      <c r="A206" s="28"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="27"/>
+      <c r="A207" s="28"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="27"/>
+      <c r="A208" s="28"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="27"/>
+      <c r="A209" s="28"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="27"/>
+      <c r="A210" s="28"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="27"/>
+      <c r="A211" s="28"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="27"/>
+      <c r="A212" s="28"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="27"/>
+      <c r="A213" s="28"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="27"/>
+      <c r="A214" s="28"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="27"/>
+      <c r="A215" s="28"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="27"/>
+      <c r="A216" s="28"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="27"/>
+      <c r="A217" s="28"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="27"/>
+      <c r="A218" s="28"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="27"/>
+      <c r="A219" s="28"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="27"/>
-    </row>
-    <row r="221" ht="15.75" customHeight="1"/>
+      <c r="A220" s="28"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="28"/>
+    </row>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
     <row r="224" ht="15.75" customHeight="1"/>
@@ -9238,6 +9305,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -9266,14 +9334,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="29" t="s">
         <v>156</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -10307,7 +10375,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="23"/>
       <c r="B1" s="24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -10348,663 +10416,663 @@
     </row>
     <row r="4">
       <c r="A4" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B4" s="25"/>
     </row>
     <row r="5">
       <c r="A5" s="25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B5" s="25"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="26"/>
+      <c r="A6" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="27"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="27"/>
+      <c r="A15" s="28"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="27"/>
+      <c r="A19" s="28"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="27"/>
+      <c r="A23" s="28"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="27"/>
+      <c r="A24" s="28"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="27"/>
+      <c r="A25" s="28"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="27"/>
+      <c r="A26" s="28"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="27"/>
+      <c r="A27" s="28"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="27"/>
+      <c r="A28" s="28"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="27"/>
+      <c r="A29" s="28"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="27"/>
+      <c r="A30" s="28"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="27"/>
+      <c r="A31" s="28"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="27"/>
+      <c r="A32" s="28"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="27"/>
+      <c r="A33" s="28"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="27"/>
+      <c r="A34" s="28"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="27"/>
+      <c r="A35" s="28"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="27"/>
+      <c r="A36" s="28"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="27"/>
+      <c r="A37" s="28"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="27"/>
+      <c r="A38" s="28"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="27"/>
+      <c r="A39" s="28"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="27"/>
+      <c r="A40" s="28"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="27"/>
+      <c r="A41" s="28"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="27"/>
+      <c r="A42" s="28"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="27"/>
+      <c r="A43" s="28"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="27"/>
+      <c r="A44" s="28"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="27"/>
+      <c r="A45" s="28"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="27"/>
+      <c r="A46" s="28"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="27"/>
+      <c r="A47" s="28"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="27"/>
+      <c r="A48" s="28"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="27"/>
+      <c r="A49" s="28"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="27"/>
+      <c r="A50" s="28"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="27"/>
+      <c r="A51" s="28"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="27"/>
+      <c r="A52" s="28"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="27"/>
+      <c r="A53" s="28"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="27"/>
+      <c r="A54" s="28"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="27"/>
+      <c r="A55" s="28"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="27"/>
+      <c r="A56" s="28"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="27"/>
+      <c r="A57" s="28"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="27"/>
+      <c r="A58" s="28"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="27"/>
+      <c r="A59" s="28"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="27"/>
+      <c r="A60" s="28"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="27"/>
+      <c r="A61" s="28"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="27"/>
+      <c r="A62" s="28"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="27"/>
+      <c r="A63" s="28"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="27"/>
+      <c r="A64" s="28"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="27"/>
+      <c r="A65" s="28"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="27"/>
+      <c r="A66" s="28"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="27"/>
+      <c r="A67" s="28"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="27"/>
+      <c r="A68" s="28"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="27"/>
+      <c r="A69" s="28"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="27"/>
+      <c r="A70" s="28"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="27"/>
+      <c r="A71" s="28"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="27"/>
+      <c r="A72" s="28"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="27"/>
+      <c r="A73" s="28"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="27"/>
+      <c r="A74" s="28"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="27"/>
+      <c r="A75" s="28"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="27"/>
+      <c r="A76" s="28"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="27"/>
+      <c r="A77" s="28"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="27"/>
+      <c r="A78" s="28"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="27"/>
+      <c r="A79" s="28"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="27"/>
+      <c r="A80" s="28"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="27"/>
+      <c r="A81" s="28"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="27"/>
+      <c r="A82" s="28"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="27"/>
+      <c r="A83" s="28"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="27"/>
+      <c r="A84" s="28"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="27"/>
+      <c r="A85" s="28"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="27"/>
+      <c r="A86" s="28"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="27"/>
+      <c r="A87" s="28"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="27"/>
+      <c r="A88" s="28"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="27"/>
+      <c r="A89" s="28"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="27"/>
+      <c r="A90" s="28"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="27"/>
+      <c r="A91" s="28"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="27"/>
+      <c r="A92" s="28"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="27"/>
+      <c r="A93" s="28"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="27"/>
+      <c r="A94" s="28"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="27"/>
+      <c r="A95" s="28"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="27"/>
+      <c r="A96" s="28"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="27"/>
+      <c r="A97" s="28"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="27"/>
+      <c r="A98" s="28"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="27"/>
+      <c r="A99" s="28"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="27"/>
+      <c r="A100" s="28"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="27"/>
+      <c r="A101" s="28"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="27"/>
+      <c r="A102" s="28"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="27"/>
+      <c r="A103" s="28"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="27"/>
+      <c r="A104" s="28"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="27"/>
+      <c r="A105" s="28"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="27"/>
+      <c r="A106" s="28"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="27"/>
+      <c r="A107" s="28"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="27"/>
+      <c r="A108" s="28"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="27"/>
+      <c r="A109" s="28"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="27"/>
+      <c r="A110" s="28"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="27"/>
+      <c r="A111" s="28"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="27"/>
+      <c r="A112" s="28"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="27"/>
+      <c r="A113" s="28"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="27"/>
+      <c r="A114" s="28"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="27"/>
+      <c r="A115" s="28"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="27"/>
+      <c r="A116" s="28"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="27"/>
+      <c r="A117" s="28"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="27"/>
+      <c r="A118" s="28"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="27"/>
+      <c r="A119" s="28"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="27"/>
+      <c r="A120" s="28"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="27"/>
+      <c r="A121" s="28"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="27"/>
+      <c r="A122" s="28"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="27"/>
+      <c r="A123" s="28"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="27"/>
+      <c r="A124" s="28"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="27"/>
+      <c r="A125" s="28"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="27"/>
+      <c r="A126" s="28"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="27"/>
+      <c r="A127" s="28"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="27"/>
+      <c r="A128" s="28"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="27"/>
+      <c r="A129" s="28"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="27"/>
+      <c r="A130" s="28"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="27"/>
+      <c r="A131" s="28"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="27"/>
+      <c r="A132" s="28"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="27"/>
+      <c r="A133" s="28"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="27"/>
+      <c r="A134" s="28"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="27"/>
+      <c r="A135" s="28"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="27"/>
+      <c r="A136" s="28"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="27"/>
+      <c r="A137" s="28"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="27"/>
+      <c r="A138" s="28"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="27"/>
+      <c r="A139" s="28"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="27"/>
+      <c r="A140" s="28"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="27"/>
+      <c r="A141" s="28"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="27"/>
+      <c r="A142" s="28"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="27"/>
+      <c r="A143" s="28"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="27"/>
+      <c r="A144" s="28"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="27"/>
+      <c r="A145" s="28"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="27"/>
+      <c r="A146" s="28"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="27"/>
+      <c r="A147" s="28"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="27"/>
+      <c r="A148" s="28"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="27"/>
+      <c r="A149" s="28"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="27"/>
+      <c r="A150" s="28"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="27"/>
+      <c r="A151" s="28"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="27"/>
+      <c r="A152" s="28"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="27"/>
+      <c r="A153" s="28"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="27"/>
+      <c r="A154" s="28"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="27"/>
+      <c r="A155" s="28"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="27"/>
+      <c r="A156" s="28"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="27"/>
+      <c r="A157" s="28"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="27"/>
+      <c r="A158" s="28"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="27"/>
+      <c r="A159" s="28"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="27"/>
+      <c r="A160" s="28"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="27"/>
+      <c r="A161" s="28"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="27"/>
+      <c r="A162" s="28"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="27"/>
+      <c r="A163" s="28"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="27"/>
+      <c r="A164" s="28"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="27"/>
+      <c r="A165" s="28"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="27"/>
+      <c r="A166" s="28"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="27"/>
+      <c r="A167" s="28"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="27"/>
+      <c r="A168" s="28"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="27"/>
+      <c r="A169" s="28"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="27"/>
+      <c r="A170" s="28"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="27"/>
+      <c r="A171" s="28"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="27"/>
+      <c r="A172" s="28"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="27"/>
+      <c r="A173" s="28"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="27"/>
+      <c r="A174" s="28"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="27"/>
+      <c r="A175" s="28"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="27"/>
+      <c r="A176" s="28"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="27"/>
+      <c r="A177" s="28"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="27"/>
+      <c r="A178" s="28"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="27"/>
+      <c r="A179" s="28"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="27"/>
+      <c r="A180" s="28"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="27"/>
+      <c r="A181" s="28"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="27"/>
+      <c r="A182" s="28"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="27"/>
+      <c r="A183" s="28"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="27"/>
+      <c r="A184" s="28"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="27"/>
+      <c r="A185" s="28"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="27"/>
+      <c r="A186" s="28"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="27"/>
+      <c r="A187" s="28"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="27"/>
+      <c r="A188" s="28"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="27"/>
+      <c r="A189" s="28"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="27"/>
+      <c r="A190" s="28"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="27"/>
+      <c r="A191" s="28"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="27"/>
+      <c r="A192" s="28"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="27"/>
+      <c r="A193" s="28"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="27"/>
+      <c r="A194" s="28"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="27"/>
+      <c r="A195" s="28"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="27"/>
+      <c r="A196" s="28"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="27"/>
+      <c r="A197" s="28"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="27"/>
+      <c r="A198" s="28"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="27"/>
+      <c r="A199" s="28"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="27"/>
+      <c r="A200" s="28"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="27"/>
+      <c r="A201" s="28"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="27"/>
+      <c r="A202" s="28"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="27"/>
+      <c r="A203" s="28"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="27"/>
+      <c r="A204" s="28"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="27"/>
+      <c r="A205" s="28"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="27"/>
+      <c r="A206" s="28"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="27"/>
+      <c r="A207" s="28"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="27"/>
+      <c r="A208" s="28"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="27"/>
+      <c r="A209" s="28"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="27"/>
+      <c r="A210" s="28"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="27"/>
+      <c r="A211" s="28"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="27"/>
+      <c r="A212" s="28"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="27"/>
+      <c r="A213" s="28"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="27"/>
+      <c r="A214" s="28"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="27"/>
+      <c r="A215" s="28"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="27"/>
+      <c r="A216" s="28"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="27"/>
+      <c r="A217" s="28"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="27"/>
+      <c r="A218" s="28"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="27"/>
+      <c r="A219" s="28"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="27"/>
+      <c r="A220" s="28"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/TNR_JDD/JDD.FA.CSV.xlsx
+++ b/TNR_JDD/JDD.FA.CSV.xlsx
@@ -82,7 +82,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhIObV5U4U7kkdHr4qlHEY7Y398Ig=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjniiPOkFFt4tED8xwvRWh6tjm9FA=="/>
     </ext>
   </extLst>
 </comments>

--- a/TNR_JDD/JDD.FA.CSV.xlsx
+++ b/TNR_JDD/JDD.FA.CSV.xlsx
@@ -13,7 +13,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="zLARg5FUtjYHUmye5dSNdSHIQhKz/QBQdVeAnIjrXJ4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="nQumTbmPHEkEBeRRUizeCG3TWEsLsHJjDEM5d8a93vo="/>
     </ext>
   </extLst>
 </workbook>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="159">
   <si>
     <t>Date</t>
   </si>
@@ -553,10 +553,7 @@
     <t>FOREIGNKEY</t>
   </si>
   <si>
-    <t>INTERNALVALUE</t>
-  </si>
-  <si>
-    <t>CRITICITE</t>
+    <t>ID_NUMCRI*CRI*ST_DES</t>
   </si>
   <si>
     <t>SEQUENCE</t>
@@ -6864,10 +6861,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="7.0" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A8" sqref="A8" pane="bottomLeft"/>
-      <selection activeCell="B8" sqref="B8" pane="bottomRight"/>
+      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
+      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -7264,8 +7261,8 @@
       <c r="W3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="25" t="s">
-        <v>9</v>
+      <c r="X3" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="Y3" s="25" t="s">
         <v>9</v>
@@ -7353,66 +7350,166 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="25"/>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="25"/>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="25"/>
+      <c r="B4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ4" s="25" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>9</v>
@@ -7421,19 +7518,19 @@
         <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>9</v>
@@ -7457,7 +7554,7 @@
         <v>9</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="25" t="s">
         <v>9</v>
@@ -7487,7 +7584,7 @@
         <v>9</v>
       </c>
       <c r="Z5" s="25" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="AA5" s="25" t="s">
         <v>9</v>
@@ -7568,321 +7665,166 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="25" t="s">
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="Q6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ6" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="S7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="U7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="V7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="W7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="X7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ7" s="27" t="s">
-        <v>9</v>
-      </c>
+      <c r="B6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ6" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="28"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="28"/>
@@ -8523,9 +8465,7 @@
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="28"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="28"/>
-    </row>
+    <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
     <row r="224" ht="15.75" customHeight="1"/>
@@ -9305,7 +9245,6 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -9335,13 +9274,13 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>157</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -10375,7 +10314,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="23"/>
       <c r="B1" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -10416,19 +10355,19 @@
     </row>
     <row r="4">
       <c r="A4" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="25"/>
     </row>
     <row r="5">
       <c r="A5" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="25"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="27"/>
     </row>

--- a/TNR_JDD/JDD.FA.CSV.xlsx
+++ b/TNR_JDD/JDD.FA.CSV.xlsx
@@ -31,7 +31,13 @@
 ID#AAAAxsRru3k
 Nicolas HUC    (2023-05-24 14:18:07)
 @jean-marc.lafarge-ext@apave.com question MOE
-_Attribuée à Jean-Marc LAFARGE_</t>
+_Attribuée à Jean-Marc LAFARGE_
+------
+ID#AAAA3lE9rnY
+Jean-Marc LAFARGE    (2023-08-22 09:51:07)
+(interne)O/N )Indique que le contrat est en cours de révision
+@nicolas.huc@apave.com
+_Réattribué à Nicolas HUC_</t>
       </text>
     </comment>
     <comment authorId="0" ref="D43">
@@ -40,7 +46,15 @@
 ID#AAAAxsRru3g
 Nicolas HUC    (2023-05-24 14:18:00)
 @jean-marc.lafarge-ext@apave.com question MOE
-_Attribuée à Jean-Marc LAFARGE_</t>
+_Attribuée à Jean-Marc LAFARGE_
+------
+ID#AAAA3lE9rnU
+Jean-Marc LAFARGE    (2023-08-22 09:50:43)
+Modifier Contrat de service &gt; Voir les conditions de révision 
+A : Révision automatique autorisée
+M : Révision manuelle seulement
+@nicolas.huc@apave.com
+_Réattribué à Nicolas HUC_</t>
       </text>
     </comment>
     <comment authorId="0" ref="D42">
@@ -49,7 +63,15 @@
 ID#AAAAxsRru3c
 Nicolas HUC    (2023-05-24 14:17:51)
 @jean-marc.lafarge-ext@apave.com question MOE
-_Attribuée à Jean-Marc LAFARGE_</t>
+_Attribuée à Jean-Marc LAFARGE_
+------
+ID#AAAA3lE9rnQ
+Jean-Marc LAFARGE    (2023-08-22 09:50:03)
+Modifier Contrat de service &gt; Voir les conditions de révision
+O : Appliquer le coefficient au tarif d'origine 
+D : Appliquer le coefficient au dernier tarif 
+@nicolas.huc@apave.com
+_Réattribué à Nicolas HUC_</t>
       </text>
     </comment>
     <comment authorId="0" ref="D38">
@@ -58,7 +80,16 @@
 ID#AAAAxsRru3Y
 Nicolas HUC    (2023-05-24 14:17:41)
 @jean-marc.lafarge-ext@apave.com question MOE
-_Attribuée à Jean-Marc LAFARGE_</t>
+_Attribuée à Jean-Marc LAFARGE_
+------
+ID#AAAA3lE9rng
+Jean-Marc LAFARGE    (2023-08-22 09:52:05)
+Modifier Contrat de service &gt; Voir les conditions de révision
+Par rapport au Mois NU_MOIIND
+A:Indice AU
+D:Indice DE
+@nicolas.huc@apave.com
+_Réattribué à Nicolas HUC_</t>
       </text>
     </comment>
     <comment authorId="0" ref="D29">
@@ -67,7 +98,13 @@
 ID#AAAAxsRru3U
 Nicolas HUC    (2023-05-24 14:17:32)
 @jean-marc.lafarge-ext@apave.com question MOE
-_Attribuée à Jean-Marc LAFARGE_</t>
+_Attribuée à Jean-Marc LAFARGE_
+------
+ID#AAAA3lE9rnM
+Jean-Marc LAFARGE    (2023-08-22 09:48:54)
+ID_NUMCLI a été créé après mais ID_CODCLI est resté en PK
+@nicolas.huc@apave.com
+_Réattribué à Nicolas HUC_</t>
       </text>
     </comment>
     <comment authorId="0" ref="D5">
@@ -76,13 +113,23 @@
 ID#AAAAxsRru3Q
 Nicolas HUC    (2023-05-24 14:17:22)
 @jean-marc.lafarge-ext@apave.com question MOE
-_Attribuée à Jean-Marc LAFARGE_</t>
+_Attribuée à Jean-Marc LAFARGE_
+------
+ID#AAAA3lE9rnc
+Jean-Marc LAFARGE    (2023-08-22 09:51:34)
+Définit à la création du contrat en fonction du type
+0 : contrat de service
+1 : contrat assurance
+2 : contrat de location
+3 : d'approvisionnement
+@nicolas.huc@apave.com
+_Réattribué à Nicolas HUC_</t>
       </text>
     </comment>
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjniiPOkFFt4tED8xwvRWh6tjm9FA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mii9nOb45rVAdYXldI/wXvx7qpLhQ=="/>
     </ext>
   </extLst>
 </comments>

--- a/TNR_JDD/JDD.FA.CSV.xlsx
+++ b/TNR_JDD/JDD.FA.CSV.xlsx
@@ -19,124 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="D46">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAxsRru3k
-Nicolas HUC    (2023-05-24 14:18:07)
-@jean-marc.lafarge-ext@apave.com question MOE
-_Attribuée à Jean-Marc LAFARGE_
-------
-ID#AAAA3lE9rnY
-Jean-Marc LAFARGE    (2023-08-22 09:51:07)
-(interne)O/N )Indique que le contrat est en cours de révision
-@nicolas.huc@apave.com
-_Réattribué à Nicolas HUC_</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D43">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAxsRru3g
-Nicolas HUC    (2023-05-24 14:18:00)
-@jean-marc.lafarge-ext@apave.com question MOE
-_Attribuée à Jean-Marc LAFARGE_
-------
-ID#AAAA3lE9rnU
-Jean-Marc LAFARGE    (2023-08-22 09:50:43)
-Modifier Contrat de service &gt; Voir les conditions de révision 
-A : Révision automatique autorisée
-M : Révision manuelle seulement
-@nicolas.huc@apave.com
-_Réattribué à Nicolas HUC_</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D42">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAxsRru3c
-Nicolas HUC    (2023-05-24 14:17:51)
-@jean-marc.lafarge-ext@apave.com question MOE
-_Attribuée à Jean-Marc LAFARGE_
-------
-ID#AAAA3lE9rnQ
-Jean-Marc LAFARGE    (2023-08-22 09:50:03)
-Modifier Contrat de service &gt; Voir les conditions de révision
-O : Appliquer le coefficient au tarif d'origine 
-D : Appliquer le coefficient au dernier tarif 
-@nicolas.huc@apave.com
-_Réattribué à Nicolas HUC_</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D38">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAxsRru3Y
-Nicolas HUC    (2023-05-24 14:17:41)
-@jean-marc.lafarge-ext@apave.com question MOE
-_Attribuée à Jean-Marc LAFARGE_
-------
-ID#AAAA3lE9rng
-Jean-Marc LAFARGE    (2023-08-22 09:52:05)
-Modifier Contrat de service &gt; Voir les conditions de révision
-Par rapport au Mois NU_MOIIND
-A:Indice AU
-D:Indice DE
-@nicolas.huc@apave.com
-_Réattribué à Nicolas HUC_</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D29">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAxsRru3U
-Nicolas HUC    (2023-05-24 14:17:32)
-@jean-marc.lafarge-ext@apave.com question MOE
-_Attribuée à Jean-Marc LAFARGE_
-------
-ID#AAAA3lE9rnM
-Jean-Marc LAFARGE    (2023-08-22 09:48:54)
-ID_NUMCLI a été créé après mais ID_CODCLI est resté en PK
-@nicolas.huc@apave.com
-_Réattribué à Nicolas HUC_</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D5">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAxsRru3Q
-Nicolas HUC    (2023-05-24 14:17:22)
-@jean-marc.lafarge-ext@apave.com question MOE
-_Attribuée à Jean-Marc LAFARGE_
-------
-ID#AAAA3lE9rnc
-Jean-Marc LAFARGE    (2023-08-22 09:51:34)
-Définit à la création du contrat en fonction du type
-0 : contrat de service
-1 : contrat assurance
-2 : contrat de location
-3 : d'approvisionnement
-@nicolas.huc@apave.com
-_Réattribué à Nicolas HUC_</t>
-      </text>
-    </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mii9nOb45rVAdYXldI/wXvx7qpLhQ=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="166">
   <si>
     <t>Date</t>
   </si>
@@ -254,296 +138,324 @@
     <t>varchar(1)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Calculé
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>0 : contrat de service
+1 : contrat assurance
+2 : contrat de location
+3 : contrat d'approvisionnement</t>
+    </r>
+  </si>
+  <si>
+    <t>ID_CODFOU</t>
+  </si>
+  <si>
+    <t>Identifiant du fournisseur</t>
+  </si>
+  <si>
+    <t>PREREQUIS</t>
+  </si>
+  <si>
+    <t>ID_CODINT</t>
+  </si>
+  <si>
+    <t>Identifiant de l'acteur exécutant le contrat</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>ID_NUMDOC</t>
+  </si>
+  <si>
+    <t>Identifiant technique du mémo des notes</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>Calculé</t>
+  </si>
+  <si>
+    <t>ID_CODGES</t>
+  </si>
+  <si>
+    <t>Identifiant fonctionnel de l'organisation</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>ST_DES</t>
+  </si>
+  <si>
+    <t>Désignation du contrat</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>ST_REF</t>
+  </si>
+  <si>
+    <t>Réferénce du contrat</t>
+  </si>
+  <si>
+    <t>DT_DEB</t>
+  </si>
+  <si>
+    <t>Date de début d'effet</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>DT_FIN</t>
+  </si>
+  <si>
+    <t>Date de fin d'effet</t>
+  </si>
+  <si>
+    <t>DT_REL</t>
+  </si>
+  <si>
+    <t>Date de la prochaine relance</t>
+  </si>
+  <si>
+    <t>NU_MON</t>
+  </si>
+  <si>
+    <t>Montant du contrat en devise société</t>
+  </si>
+  <si>
+    <t>ST_RES</t>
+  </si>
+  <si>
+    <t>Nom du responsable du contrat</t>
+  </si>
+  <si>
+    <t>ID_CODUTI</t>
+  </si>
+  <si>
+    <t>Utilisateur à l'origine de la dernière modification</t>
+  </si>
+  <si>
+    <t>BASE MASTER</t>
+  </si>
+  <si>
+    <t>ST_INA</t>
+  </si>
+  <si>
+    <t>Contrat inactif</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>ID_EXT</t>
+  </si>
+  <si>
+    <t>Identifiant technique des données étendues</t>
+  </si>
+  <si>
+    <t>NU_NBRINT</t>
+  </si>
+  <si>
+    <t>Nombre d'interventions prévues pour le contrat</t>
+  </si>
+  <si>
+    <t>ID_CODNAT</t>
+  </si>
+  <si>
+    <t>Identifiant de la nature du contrat</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>ST_DOC</t>
+  </si>
+  <si>
+    <t>Lien vers un document</t>
+  </si>
+  <si>
+    <t>varchar(512)</t>
+  </si>
+  <si>
+    <t>OBSOLETE</t>
+  </si>
+  <si>
+    <t>ST_SOU</t>
+  </si>
+  <si>
+    <t>Nom du souscripteur du contrat</t>
+  </si>
+  <si>
+    <t>ST_SOUNAT</t>
+  </si>
+  <si>
+    <t>Type de souscripteur</t>
+  </si>
+  <si>
+    <t>DT_NEG</t>
+  </si>
+  <si>
+    <t>Date de prochaine négociation</t>
+  </si>
+  <si>
+    <t>ID_NUMCRI</t>
+  </si>
+  <si>
+    <t>Identifiant du niveau de criticité</t>
+  </si>
+  <si>
+    <t>NU_VALCOU</t>
+  </si>
+  <si>
+    <t>Valeur couverte par le contrat en devise société</t>
+  </si>
+  <si>
+    <t>ST_CON</t>
+  </si>
+  <si>
+    <t>Nom du contact</t>
+  </si>
+  <si>
+    <t>ID_CODCLI</t>
+  </si>
+  <si>
+    <t>Identifiant fonctionnel du client du contrat</t>
+  </si>
+  <si>
+    <t>ID_CODINTGES</t>
+  </si>
+  <si>
+    <t>Identifiant de l'acteur gestionnaire du contrat</t>
+  </si>
+  <si>
+    <t>ID_CODGAR</t>
+  </si>
+  <si>
+    <t>Identifiant du code garantie</t>
+  </si>
+  <si>
+    <t>ST_MOD</t>
+  </si>
+  <si>
+    <t>Contrat modèle</t>
+  </si>
+  <si>
+    <t>ID_CODCONTRAMOD</t>
+  </si>
+  <si>
+    <t>Identifiant du contrat modèle</t>
+  </si>
+  <si>
+    <t>NU_K</t>
+  </si>
+  <si>
+    <t>Coefficient de révision des tarifs du contrat</t>
+  </si>
+  <si>
+    <t>ST_FOR</t>
+  </si>
+  <si>
+    <t>Formule de révision des tarifs du contrat</t>
+  </si>
+  <si>
+    <t>NU_DECINT</t>
+  </si>
+  <si>
+    <t>Nombre de décimales pour les calculs intermédiaires du coefficient de révision</t>
+  </si>
+  <si>
+    <t>NU_DECFIN</t>
+  </si>
+  <si>
+    <t>Nombre de décimales pour calcul final du coefficient de révision</t>
+  </si>
+  <si>
+    <t>ST_TYPIND</t>
+  </si>
+  <si>
+    <t>Mode de recherche des indices pour la révision</t>
+  </si>
+  <si>
+    <t>A:Indice AU
+D:Indice DE</t>
+  </si>
+  <si>
+    <t>NU_MOIIND</t>
+  </si>
+  <si>
+    <t>Numéro du mois utilisé pour la recherche des indices</t>
+  </si>
+  <si>
+    <t>ID_NUMDOCRAC</t>
+  </si>
+  <si>
+    <t>Identifiant technique du mémo de calcul du coefficient de raccordement</t>
+  </si>
+  <si>
+    <t>ST_IMPAUT</t>
+  </si>
+  <si>
+    <t>Impression automatique de la note de calcul après révision</t>
+  </si>
+  <si>
+    <t>ST_PORK</t>
+  </si>
+  <si>
+    <t>Portée du coefficient de révision</t>
+  </si>
+  <si>
+    <t>O : Appliquer le coefficient au tarif d'origine
+D : Appliquer le coefficient au dernier tarif</t>
+  </si>
+  <si>
+    <t>ST_REVMOD</t>
+  </si>
+  <si>
+    <t>Mode de révision autorisé</t>
+  </si>
+  <si>
+    <t>A: Révision automatique autorisée
+M: Révision manuelle seulement</t>
+  </si>
+  <si>
+    <t>ID_NUMREV</t>
+  </si>
+  <si>
+    <t>identifiant technique de la révision</t>
+  </si>
+  <si>
+    <t>DT_DATREV</t>
+  </si>
+  <si>
+    <t>Date de la prochaine révision</t>
+  </si>
+  <si>
+    <t>ST_REV</t>
+  </si>
+  <si>
+    <t>Statut interne de révision</t>
+  </si>
+  <si>
     <t>Calculé
-QUESTION MOE quelles sont les valeurs atttendues ?</t>
-  </si>
-  <si>
-    <t>ID_CODFOU</t>
-  </si>
-  <si>
-    <t>Identifiant du fournisseur</t>
-  </si>
-  <si>
-    <t>PREREQUIS</t>
-  </si>
-  <si>
-    <t>ID_CODINT</t>
-  </si>
-  <si>
-    <t>Identifiant de l'acteur exécutant le contrat</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>ID_NUMDOC</t>
-  </si>
-  <si>
-    <t>Identifiant technique du mémo des notes</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>Calculé</t>
-  </si>
-  <si>
-    <t>ID_CODGES</t>
-  </si>
-  <si>
-    <t>Identifiant fonctionnel de l'organisation</t>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
-    <t>ST_DES</t>
-  </si>
-  <si>
-    <t>Désignation du contrat</t>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
-    <t>ST_REF</t>
-  </si>
-  <si>
-    <t>Réferénce du contrat</t>
-  </si>
-  <si>
-    <t>DT_DEB</t>
-  </si>
-  <si>
-    <t>Date de début d'effet</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>DT_FIN</t>
-  </si>
-  <si>
-    <t>Date de fin d'effet</t>
-  </si>
-  <si>
-    <t>DT_REL</t>
-  </si>
-  <si>
-    <t>Date de la prochaine relance</t>
-  </si>
-  <si>
-    <t>NU_MON</t>
-  </si>
-  <si>
-    <t>Montant du contrat en devise société</t>
-  </si>
-  <si>
-    <t>ST_RES</t>
-  </si>
-  <si>
-    <t>Nom du responsable du contrat</t>
-  </si>
-  <si>
-    <t>ID_CODUTI</t>
-  </si>
-  <si>
-    <t>Utilisateur à l'origine de la dernière modification</t>
-  </si>
-  <si>
-    <t>BASE MASTER</t>
-  </si>
-  <si>
-    <t>ST_INA</t>
-  </si>
-  <si>
-    <t>Contrat inactif</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>ID_EXT</t>
-  </si>
-  <si>
-    <t>Identifiant technique des données étendues</t>
-  </si>
-  <si>
-    <t>NU_NBRINT</t>
-  </si>
-  <si>
-    <t>Nombre d'interventions prévues pour le contrat</t>
-  </si>
-  <si>
-    <t>ID_CODNAT</t>
-  </si>
-  <si>
-    <t>Identifiant de la nature du contrat</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>ST_DOC</t>
-  </si>
-  <si>
-    <t>Lien vers un document</t>
-  </si>
-  <si>
-    <t>varchar(512)</t>
-  </si>
-  <si>
-    <t>OBSOLETE</t>
-  </si>
-  <si>
-    <t>ST_SOU</t>
-  </si>
-  <si>
-    <t>Nom du souscripteur du contrat</t>
-  </si>
-  <si>
-    <t>ST_SOUNAT</t>
-  </si>
-  <si>
-    <t>Type de souscripteur</t>
-  </si>
-  <si>
-    <t>DT_NEG</t>
-  </si>
-  <si>
-    <t>Date de prochaine négociation</t>
-  </si>
-  <si>
-    <t>ID_NUMCRI</t>
-  </si>
-  <si>
-    <t>Identifiant du niveau de criticité</t>
-  </si>
-  <si>
-    <t>NU_VALCOU</t>
-  </si>
-  <si>
-    <t>Valeur couverte par le contrat en devise société</t>
-  </si>
-  <si>
-    <t>ST_CON</t>
-  </si>
-  <si>
-    <t>Nom du contact</t>
-  </si>
-  <si>
-    <t>ID_CODCLI</t>
-  </si>
-  <si>
-    <t>Identifiant fonctionnel du client du contrat</t>
-  </si>
-  <si>
-    <t>QUESTION MOE quelle est la différence avec ID_NUMCLI ? Obsolète ?</t>
-  </si>
-  <si>
-    <t>ID_CODINTGES</t>
-  </si>
-  <si>
-    <t>Identifiant de l'acteur gestionnaire du contrat</t>
-  </si>
-  <si>
-    <t>ID_CODGAR</t>
-  </si>
-  <si>
-    <t>Identifiant du code garantie</t>
-  </si>
-  <si>
-    <t>ST_MOD</t>
-  </si>
-  <si>
-    <t>Contrat modèle</t>
-  </si>
-  <si>
-    <t>ID_CODCONTRAMOD</t>
-  </si>
-  <si>
-    <t>Identifiant du contrat modèle</t>
-  </si>
-  <si>
-    <t>NU_K</t>
-  </si>
-  <si>
-    <t>Coefficient de révision des tarifs du contrat</t>
-  </si>
-  <si>
-    <t>ST_FOR</t>
-  </si>
-  <si>
-    <t>Formule de révision des tarifs du contrat</t>
-  </si>
-  <si>
-    <t>NU_DECINT</t>
-  </si>
-  <si>
-    <t>Nombre de décimales pour les calculs intermédiaires du coefficient de révision</t>
-  </si>
-  <si>
-    <t>NU_DECFIN</t>
-  </si>
-  <si>
-    <t>Nombre de décimales pour calcul final du coefficient de révision</t>
-  </si>
-  <si>
-    <t>ST_TYPIND</t>
-  </si>
-  <si>
-    <t>Mode de recherche des indices pour la révision</t>
-  </si>
-  <si>
-    <t>QUESTION MOE quelles sont les valeurs atttendues ?</t>
-  </si>
-  <si>
-    <t>NU_MOIIND</t>
-  </si>
-  <si>
-    <t>Numéro du mois utilisé pour la recherche des indices</t>
-  </si>
-  <si>
-    <t>ID_NUMDOCRAC</t>
-  </si>
-  <si>
-    <t>Identifiant technique du mémo de calcul du coefficient de raccordement</t>
-  </si>
-  <si>
-    <t>ST_IMPAUT</t>
-  </si>
-  <si>
-    <t>Impression automatique de la note de calcul après révision</t>
-  </si>
-  <si>
-    <t>ST_PORK</t>
-  </si>
-  <si>
-    <t>Portée du coefficient de révision</t>
-  </si>
-  <si>
-    <t>ST_REVMOD</t>
-  </si>
-  <si>
-    <t>Mode de révision autorisé</t>
-  </si>
-  <si>
-    <t>ID_NUMREV</t>
-  </si>
-  <si>
-    <t>identifiant technique de la révision</t>
-  </si>
-  <si>
-    <t>DT_DATREV</t>
-  </si>
-  <si>
-    <t>Date de la prochaine révision</t>
-  </si>
-  <si>
-    <t>ST_REV</t>
-  </si>
-  <si>
-    <t>Statut interne de révision</t>
+O: Révision en cours
+N: Révision terminée</t>
   </si>
   <si>
     <t>ST_FORORI</t>
@@ -682,7 +594,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -733,13 +645,18 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -873,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -935,35 +852,41 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="9" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="9" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="9" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="9" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="3" fillId="11" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
@@ -2431,7 +2354,7 @@
       <c r="C8" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="25" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="21" t="s">
@@ -2570,7 +2493,7 @@
       <c r="C17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="25" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="21" t="s">
@@ -2605,7 +2528,7 @@
       <c r="C19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="25" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="21" t="s">
@@ -2655,7 +2578,7 @@
       <c r="C22" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="26" t="s">
         <v>79</v>
       </c>
       <c r="E22" s="21" t="s">
@@ -2687,7 +2610,7 @@
       <c r="C24" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="26" t="s">
         <v>79</v>
       </c>
       <c r="E24" s="21" t="s">
@@ -2767,9 +2690,7 @@
       <c r="C29" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>94</v>
-      </c>
+      <c r="D29" s="22"/>
       <c r="E29" s="21" t="s">
         <v>29</v>
       </c>
@@ -2779,10 +2700,10 @@
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>96</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>39</v>
@@ -2797,10 +2718,10 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>28</v>
@@ -2815,10 +2736,10 @@
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>68</v>
@@ -2830,10 +2751,10 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>28</v>
@@ -2845,10 +2766,10 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>42</v>
@@ -2860,10 +2781,10 @@
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>106</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>78</v>
@@ -2875,10 +2796,10 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>42</v>
@@ -2890,10 +2811,10 @@
     </row>
     <row r="37">
       <c r="A37" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>110</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>42</v>
@@ -2905,16 +2826,16 @@
     </row>
     <row r="38">
       <c r="A38" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>112</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="23" t="s">
-        <v>113</v>
+      <c r="D38" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>29</v>
@@ -2922,10 +2843,10 @@
     </row>
     <row r="39">
       <c r="A39" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>115</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>42</v>
@@ -2936,15 +2857,15 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>117</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="25" t="s">
         <v>43</v>
       </c>
       <c r="E40" s="21" t="s">
@@ -2953,10 +2874,10 @@
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>68</v>
@@ -2967,16 +2888,16 @@
     </row>
     <row r="42">
       <c r="A42" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="23" t="s">
-        <v>113</v>
+      <c r="D42" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>29</v>
@@ -2993,7 +2914,7 @@
         <v>32</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>29</v>
@@ -3001,15 +2922,15 @@
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="25" t="s">
         <v>43</v>
       </c>
       <c r="E44" s="21" t="s">
@@ -3018,10 +2939,10 @@
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>54</v>
@@ -3033,16 +2954,16 @@
     </row>
     <row r="46">
       <c r="A46" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="E46" s="21" t="s">
         <v>29</v>
@@ -3050,15 +2971,15 @@
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="25" t="s">
         <v>43</v>
       </c>
       <c r="E47" s="21" t="s">
@@ -3067,10 +2988,10 @@
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>28</v>
@@ -3085,10 +3006,10 @@
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>42</v>
@@ -3103,10 +3024,10 @@
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>68</v>
@@ -3118,15 +3039,15 @@
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="25" t="s">
         <v>43</v>
       </c>
       <c r="E51" s="21" t="s">
@@ -3138,15 +3059,15 @@
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="25" t="s">
         <v>43</v>
       </c>
       <c r="E52" s="21" t="s">
@@ -3158,15 +3079,15 @@
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="25" t="s">
         <v>43</v>
       </c>
       <c r="E53" s="21" t="s">
@@ -3175,15 +3096,15 @@
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="25" t="s">
         <v>43</v>
       </c>
       <c r="E54" s="21" t="s">
@@ -6978,8 +6899,7 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7006,7 +6926,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="20" t="s">
@@ -7015,1594 +6935,1594 @@
       <c r="C1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="AB1" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC1" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD1" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE1" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF1" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG1" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH1" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI1" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ1" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK1" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL1" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM1" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="AN1" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO1" s="27" t="s">
+      <c r="AB1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE1" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF1" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG1" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI1" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ1" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK1" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL1" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM1" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN1" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO1" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="AP1" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ1" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR1" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS1" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT1" s="27" t="s">
+      <c r="AP1" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ1" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR1" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS1" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="AU1" s="27" t="s">
+      <c r="AT1" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="AV1" s="27" t="s">
+      <c r="AU1" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="AW1" s="27" t="s">
+      <c r="AV1" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="AX1" s="27" t="s">
+      <c r="AW1" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="AY1" s="27" t="s">
+      <c r="AX1" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="AZ1" s="27" t="s">
+      <c r="AY1" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="BA1" s="28" t="s">
+      <c r="AZ1" s="29" t="s">
         <v>146</v>
       </c>
+      <c r="BA1" s="30" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="29" t="s">
+      <c r="B2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="E2" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="V2" s="30" t="s">
+      <c r="F2" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="W2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="X2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB2" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT2" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA2" s="31"/>
+      <c r="W2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT2" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA2" s="33"/>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="W3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="X3" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA3" s="31"/>
+      <c r="A3" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA3" s="33"/>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="X4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA4" s="31"/>
+      <c r="A4" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA4" s="33"/>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="29" t="s">
+      <c r="A5" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="Q5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="X5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA5" s="31"/>
+      <c r="B5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA5" s="33"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA6" s="33"/>
+      <c r="A6" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA6" s="35"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="BA7" s="28"/>
+      <c r="A7" s="36"/>
+      <c r="BA7" s="30"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="34"/>
+      <c r="A8" s="36"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="34"/>
+      <c r="A9" s="36"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="34"/>
+      <c r="A10" s="36"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="34"/>
+      <c r="A11" s="36"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="34"/>
+      <c r="A12" s="36"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="34"/>
+      <c r="A13" s="36"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="34"/>
+      <c r="A14" s="36"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="34"/>
+      <c r="A15" s="36"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="34"/>
+      <c r="A16" s="36"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="34"/>
+      <c r="A17" s="36"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="34"/>
+      <c r="A18" s="36"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="34"/>
+      <c r="A19" s="36"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="34"/>
+      <c r="A20" s="36"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="34"/>
+      <c r="A21" s="36"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="34"/>
+      <c r="A22" s="36"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="34"/>
+      <c r="A23" s="36"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="34"/>
+      <c r="A24" s="36"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="34"/>
+      <c r="A25" s="36"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="34"/>
+      <c r="A26" s="36"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="34"/>
+      <c r="A27" s="36"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="34"/>
+      <c r="A28" s="36"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="34"/>
+      <c r="A29" s="36"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="34"/>
+      <c r="A30" s="36"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="34"/>
+      <c r="A31" s="36"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="34"/>
+      <c r="A32" s="36"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="34"/>
+      <c r="A33" s="36"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="34"/>
+      <c r="A34" s="36"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="34"/>
+      <c r="A35" s="36"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="34"/>
+      <c r="A36" s="36"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="34"/>
+      <c r="A37" s="36"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="34"/>
+      <c r="A38" s="36"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="34"/>
+      <c r="A39" s="36"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="34"/>
+      <c r="A40" s="36"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="34"/>
+      <c r="A41" s="36"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="34"/>
+      <c r="A42" s="36"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="34"/>
+      <c r="A43" s="36"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="34"/>
+      <c r="A44" s="36"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="34"/>
+      <c r="A45" s="36"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="34"/>
+      <c r="A46" s="36"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="34"/>
+      <c r="A47" s="36"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="34"/>
+      <c r="A48" s="36"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="34"/>
+      <c r="A49" s="36"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="34"/>
+      <c r="A50" s="36"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="34"/>
+      <c r="A51" s="36"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="34"/>
+      <c r="A52" s="36"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="34"/>
+      <c r="A53" s="36"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="34"/>
+      <c r="A54" s="36"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="34"/>
+      <c r="A55" s="36"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="34"/>
+      <c r="A56" s="36"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="34"/>
+      <c r="A57" s="36"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="34"/>
+      <c r="A58" s="36"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="34"/>
+      <c r="A59" s="36"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="34"/>
+      <c r="A60" s="36"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="34"/>
+      <c r="A61" s="36"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="34"/>
+      <c r="A62" s="36"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="34"/>
+      <c r="A63" s="36"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="34"/>
+      <c r="A64" s="36"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="34"/>
+      <c r="A65" s="36"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="34"/>
+      <c r="A66" s="36"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="34"/>
+      <c r="A67" s="36"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="34"/>
+      <c r="A68" s="36"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="34"/>
+      <c r="A69" s="36"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="34"/>
+      <c r="A70" s="36"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="34"/>
+      <c r="A71" s="36"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="34"/>
+      <c r="A72" s="36"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="34"/>
+      <c r="A73" s="36"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="34"/>
+      <c r="A74" s="36"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="34"/>
+      <c r="A75" s="36"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="34"/>
+      <c r="A76" s="36"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="34"/>
+      <c r="A77" s="36"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="34"/>
+      <c r="A78" s="36"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="34"/>
+      <c r="A79" s="36"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="34"/>
+      <c r="A80" s="36"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="34"/>
+      <c r="A81" s="36"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="34"/>
+      <c r="A82" s="36"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="34"/>
+      <c r="A83" s="36"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="34"/>
+      <c r="A84" s="36"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="34"/>
+      <c r="A85" s="36"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="34"/>
+      <c r="A86" s="36"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="34"/>
+      <c r="A87" s="36"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="34"/>
+      <c r="A88" s="36"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="34"/>
+      <c r="A89" s="36"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="34"/>
+      <c r="A90" s="36"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="34"/>
+      <c r="A91" s="36"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="34"/>
+      <c r="A92" s="36"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="34"/>
+      <c r="A93" s="36"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="34"/>
+      <c r="A94" s="36"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="34"/>
+      <c r="A95" s="36"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="34"/>
+      <c r="A96" s="36"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="34"/>
+      <c r="A97" s="36"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="34"/>
+      <c r="A98" s="36"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="34"/>
+      <c r="A99" s="36"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="34"/>
+      <c r="A100" s="36"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="34"/>
+      <c r="A101" s="36"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="34"/>
+      <c r="A102" s="36"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="34"/>
+      <c r="A103" s="36"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="34"/>
+      <c r="A104" s="36"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="34"/>
+      <c r="A105" s="36"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="34"/>
+      <c r="A106" s="36"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="34"/>
+      <c r="A107" s="36"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="34"/>
+      <c r="A108" s="36"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="34"/>
+      <c r="A109" s="36"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="34"/>
+      <c r="A110" s="36"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="34"/>
+      <c r="A111" s="36"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="34"/>
+      <c r="A112" s="36"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="34"/>
+      <c r="A113" s="36"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="34"/>
+      <c r="A114" s="36"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="34"/>
+      <c r="A115" s="36"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="34"/>
+      <c r="A116" s="36"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="34"/>
+      <c r="A117" s="36"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="34"/>
+      <c r="A118" s="36"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="34"/>
+      <c r="A119" s="36"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="34"/>
+      <c r="A120" s="36"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="34"/>
+      <c r="A121" s="36"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="34"/>
+      <c r="A122" s="36"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="34"/>
+      <c r="A123" s="36"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="34"/>
+      <c r="A124" s="36"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="34"/>
+      <c r="A125" s="36"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="34"/>
+      <c r="A126" s="36"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="34"/>
+      <c r="A127" s="36"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="34"/>
+      <c r="A128" s="36"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="34"/>
+      <c r="A129" s="36"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="34"/>
+      <c r="A130" s="36"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="34"/>
+      <c r="A131" s="36"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="34"/>
+      <c r="A132" s="36"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="34"/>
+      <c r="A133" s="36"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="34"/>
+      <c r="A134" s="36"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="34"/>
+      <c r="A135" s="36"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="34"/>
+      <c r="A136" s="36"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="34"/>
+      <c r="A137" s="36"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="34"/>
+      <c r="A138" s="36"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="34"/>
+      <c r="A139" s="36"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="34"/>
+      <c r="A140" s="36"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="34"/>
+      <c r="A141" s="36"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="34"/>
+      <c r="A142" s="36"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="34"/>
+      <c r="A143" s="36"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="34"/>
+      <c r="A144" s="36"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="34"/>
+      <c r="A145" s="36"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="34"/>
+      <c r="A146" s="36"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="34"/>
+      <c r="A147" s="36"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="34"/>
+      <c r="A148" s="36"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="34"/>
+      <c r="A149" s="36"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="34"/>
+      <c r="A150" s="36"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="34"/>
+      <c r="A151" s="36"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="34"/>
+      <c r="A152" s="36"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="34"/>
+      <c r="A153" s="36"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="34"/>
+      <c r="A154" s="36"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="34"/>
+      <c r="A155" s="36"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="34"/>
+      <c r="A156" s="36"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="34"/>
+      <c r="A157" s="36"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="34"/>
+      <c r="A158" s="36"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="34"/>
+      <c r="A159" s="36"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="34"/>
+      <c r="A160" s="36"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="34"/>
+      <c r="A161" s="36"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="34"/>
+      <c r="A162" s="36"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="34"/>
+      <c r="A163" s="36"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="34"/>
+      <c r="A164" s="36"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="34"/>
+      <c r="A165" s="36"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="34"/>
+      <c r="A166" s="36"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="34"/>
+      <c r="A167" s="36"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="34"/>
+      <c r="A168" s="36"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="34"/>
+      <c r="A169" s="36"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="34"/>
+      <c r="A170" s="36"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="34"/>
+      <c r="A171" s="36"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="34"/>
+      <c r="A172" s="36"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="34"/>
+      <c r="A173" s="36"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="34"/>
+      <c r="A174" s="36"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="34"/>
+      <c r="A175" s="36"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="34"/>
+      <c r="A176" s="36"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="34"/>
+      <c r="A177" s="36"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="34"/>
+      <c r="A178" s="36"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="34"/>
+      <c r="A179" s="36"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="34"/>
+      <c r="A180" s="36"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="34"/>
+      <c r="A181" s="36"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="34"/>
+      <c r="A182" s="36"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="34"/>
+      <c r="A183" s="36"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="34"/>
+      <c r="A184" s="36"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="34"/>
+      <c r="A185" s="36"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="34"/>
+      <c r="A186" s="36"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="34"/>
+      <c r="A187" s="36"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="34"/>
+      <c r="A188" s="36"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="34"/>
+      <c r="A189" s="36"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="34"/>
+      <c r="A190" s="36"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="34"/>
+      <c r="A191" s="36"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="34"/>
+      <c r="A192" s="36"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="34"/>
+      <c r="A193" s="36"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="34"/>
+      <c r="A194" s="36"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="34"/>
+      <c r="A195" s="36"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="34"/>
+      <c r="A196" s="36"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="34"/>
+      <c r="A197" s="36"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="34"/>
+      <c r="A198" s="36"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="34"/>
+      <c r="A199" s="36"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="34"/>
+      <c r="A200" s="36"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="34"/>
+      <c r="A201" s="36"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="34"/>
+      <c r="A202" s="36"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="34"/>
+      <c r="A203" s="36"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="34"/>
+      <c r="A204" s="36"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="34"/>
+      <c r="A205" s="36"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="34"/>
+      <c r="A206" s="36"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="34"/>
+      <c r="A207" s="36"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="34"/>
+      <c r="A208" s="36"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="34"/>
+      <c r="A209" s="36"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="34"/>
+      <c r="A210" s="36"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="34"/>
+      <c r="A211" s="36"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="34"/>
+      <c r="A212" s="36"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="34"/>
+      <c r="A213" s="36"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="34"/>
+      <c r="A214" s="36"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="34"/>
+      <c r="A215" s="36"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="34"/>
+      <c r="A216" s="36"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="34"/>
+      <c r="A217" s="36"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="34"/>
+      <c r="A218" s="36"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="34"/>
+      <c r="A219" s="36"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="34"/>
+      <c r="A220" s="36"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -9412,14 +9332,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>162</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -10451,706 +10371,706 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="29"/>
+      <c r="A3" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="31"/>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="29"/>
+      <c r="A4" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="31"/>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="29"/>
+      <c r="A5" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="31"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="32"/>
+      <c r="A6" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="34"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="34"/>
+      <c r="A7" s="36"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="34"/>
+      <c r="A8" s="36"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="34"/>
+      <c r="A9" s="36"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="34"/>
+      <c r="A10" s="36"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="34"/>
+      <c r="A11" s="36"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="34"/>
+      <c r="A12" s="36"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="34"/>
+      <c r="A13" s="36"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="34"/>
+      <c r="A14" s="36"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="34"/>
+      <c r="A15" s="36"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="34"/>
+      <c r="A16" s="36"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="34"/>
+      <c r="A17" s="36"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="34"/>
+      <c r="A18" s="36"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="34"/>
+      <c r="A19" s="36"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="34"/>
+      <c r="A20" s="36"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="34"/>
+      <c r="A21" s="36"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="34"/>
+      <c r="A22" s="36"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="34"/>
+      <c r="A23" s="36"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="34"/>
+      <c r="A24" s="36"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="34"/>
+      <c r="A25" s="36"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="34"/>
+      <c r="A26" s="36"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="34"/>
+      <c r="A27" s="36"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="34"/>
+      <c r="A28" s="36"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="34"/>
+      <c r="A29" s="36"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="34"/>
+      <c r="A30" s="36"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="34"/>
+      <c r="A31" s="36"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="34"/>
+      <c r="A32" s="36"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="34"/>
+      <c r="A33" s="36"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="34"/>
+      <c r="A34" s="36"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="34"/>
+      <c r="A35" s="36"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="34"/>
+      <c r="A36" s="36"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="34"/>
+      <c r="A37" s="36"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="34"/>
+      <c r="A38" s="36"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="34"/>
+      <c r="A39" s="36"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="34"/>
+      <c r="A40" s="36"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="34"/>
+      <c r="A41" s="36"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="34"/>
+      <c r="A42" s="36"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="34"/>
+      <c r="A43" s="36"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="34"/>
+      <c r="A44" s="36"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="34"/>
+      <c r="A45" s="36"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="34"/>
+      <c r="A46" s="36"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="34"/>
+      <c r="A47" s="36"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="34"/>
+      <c r="A48" s="36"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="34"/>
+      <c r="A49" s="36"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="34"/>
+      <c r="A50" s="36"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="34"/>
+      <c r="A51" s="36"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="34"/>
+      <c r="A52" s="36"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="34"/>
+      <c r="A53" s="36"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="34"/>
+      <c r="A54" s="36"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="34"/>
+      <c r="A55" s="36"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="34"/>
+      <c r="A56" s="36"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="34"/>
+      <c r="A57" s="36"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="34"/>
+      <c r="A58" s="36"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="34"/>
+      <c r="A59" s="36"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="34"/>
+      <c r="A60" s="36"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="34"/>
+      <c r="A61" s="36"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="34"/>
+      <c r="A62" s="36"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="34"/>
+      <c r="A63" s="36"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="34"/>
+      <c r="A64" s="36"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="34"/>
+      <c r="A65" s="36"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="34"/>
+      <c r="A66" s="36"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="34"/>
+      <c r="A67" s="36"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="34"/>
+      <c r="A68" s="36"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="34"/>
+      <c r="A69" s="36"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="34"/>
+      <c r="A70" s="36"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="34"/>
+      <c r="A71" s="36"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="34"/>
+      <c r="A72" s="36"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="34"/>
+      <c r="A73" s="36"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="34"/>
+      <c r="A74" s="36"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="34"/>
+      <c r="A75" s="36"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="34"/>
+      <c r="A76" s="36"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="34"/>
+      <c r="A77" s="36"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="34"/>
+      <c r="A78" s="36"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="34"/>
+      <c r="A79" s="36"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="34"/>
+      <c r="A80" s="36"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="34"/>
+      <c r="A81" s="36"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="34"/>
+      <c r="A82" s="36"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="34"/>
+      <c r="A83" s="36"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="34"/>
+      <c r="A84" s="36"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="34"/>
+      <c r="A85" s="36"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="34"/>
+      <c r="A86" s="36"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="34"/>
+      <c r="A87" s="36"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="34"/>
+      <c r="A88" s="36"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="34"/>
+      <c r="A89" s="36"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="34"/>
+      <c r="A90" s="36"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="34"/>
+      <c r="A91" s="36"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="34"/>
+      <c r="A92" s="36"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="34"/>
+      <c r="A93" s="36"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="34"/>
+      <c r="A94" s="36"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="34"/>
+      <c r="A95" s="36"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="34"/>
+      <c r="A96" s="36"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="34"/>
+      <c r="A97" s="36"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="34"/>
+      <c r="A98" s="36"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="34"/>
+      <c r="A99" s="36"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="34"/>
+      <c r="A100" s="36"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="34"/>
+      <c r="A101" s="36"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="34"/>
+      <c r="A102" s="36"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="34"/>
+      <c r="A103" s="36"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="34"/>
+      <c r="A104" s="36"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="34"/>
+      <c r="A105" s="36"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="34"/>
+      <c r="A106" s="36"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="34"/>
+      <c r="A107" s="36"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="34"/>
+      <c r="A108" s="36"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="34"/>
+      <c r="A109" s="36"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="34"/>
+      <c r="A110" s="36"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="34"/>
+      <c r="A111" s="36"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="34"/>
+      <c r="A112" s="36"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="34"/>
+      <c r="A113" s="36"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="34"/>
+      <c r="A114" s="36"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="34"/>
+      <c r="A115" s="36"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="34"/>
+      <c r="A116" s="36"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="34"/>
+      <c r="A117" s="36"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="34"/>
+      <c r="A118" s="36"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="34"/>
+      <c r="A119" s="36"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="34"/>
+      <c r="A120" s="36"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="34"/>
+      <c r="A121" s="36"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="34"/>
+      <c r="A122" s="36"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="34"/>
+      <c r="A123" s="36"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="34"/>
+      <c r="A124" s="36"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="34"/>
+      <c r="A125" s="36"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="34"/>
+      <c r="A126" s="36"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="34"/>
+      <c r="A127" s="36"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="34"/>
+      <c r="A128" s="36"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="34"/>
+      <c r="A129" s="36"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="34"/>
+      <c r="A130" s="36"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="34"/>
+      <c r="A131" s="36"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="34"/>
+      <c r="A132" s="36"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="34"/>
+      <c r="A133" s="36"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="34"/>
+      <c r="A134" s="36"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="34"/>
+      <c r="A135" s="36"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="34"/>
+      <c r="A136" s="36"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="34"/>
+      <c r="A137" s="36"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="34"/>
+      <c r="A138" s="36"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="34"/>
+      <c r="A139" s="36"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="34"/>
+      <c r="A140" s="36"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="34"/>
+      <c r="A141" s="36"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="34"/>
+      <c r="A142" s="36"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="34"/>
+      <c r="A143" s="36"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="34"/>
+      <c r="A144" s="36"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="34"/>
+      <c r="A145" s="36"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="34"/>
+      <c r="A146" s="36"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="34"/>
+      <c r="A147" s="36"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="34"/>
+      <c r="A148" s="36"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="34"/>
+      <c r="A149" s="36"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="34"/>
+      <c r="A150" s="36"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="34"/>
+      <c r="A151" s="36"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="34"/>
+      <c r="A152" s="36"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="34"/>
+      <c r="A153" s="36"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="34"/>
+      <c r="A154" s="36"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="34"/>
+      <c r="A155" s="36"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="34"/>
+      <c r="A156" s="36"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="34"/>
+      <c r="A157" s="36"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="34"/>
+      <c r="A158" s="36"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="34"/>
+      <c r="A159" s="36"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="34"/>
+      <c r="A160" s="36"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="34"/>
+      <c r="A161" s="36"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="34"/>
+      <c r="A162" s="36"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="34"/>
+      <c r="A163" s="36"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="34"/>
+      <c r="A164" s="36"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="34"/>
+      <c r="A165" s="36"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="34"/>
+      <c r="A166" s="36"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="34"/>
+      <c r="A167" s="36"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="34"/>
+      <c r="A168" s="36"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="34"/>
+      <c r="A169" s="36"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="34"/>
+      <c r="A170" s="36"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="34"/>
+      <c r="A171" s="36"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="34"/>
+      <c r="A172" s="36"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="34"/>
+      <c r="A173" s="36"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="34"/>
+      <c r="A174" s="36"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="34"/>
+      <c r="A175" s="36"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="34"/>
+      <c r="A176" s="36"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="34"/>
+      <c r="A177" s="36"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="34"/>
+      <c r="A178" s="36"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="34"/>
+      <c r="A179" s="36"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="34"/>
+      <c r="A180" s="36"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="34"/>
+      <c r="A181" s="36"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="34"/>
+      <c r="A182" s="36"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="34"/>
+      <c r="A183" s="36"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="34"/>
+      <c r="A184" s="36"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="34"/>
+      <c r="A185" s="36"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="34"/>
+      <c r="A186" s="36"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="34"/>
+      <c r="A187" s="36"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="34"/>
+      <c r="A188" s="36"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="34"/>
+      <c r="A189" s="36"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="34"/>
+      <c r="A190" s="36"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="34"/>
+      <c r="A191" s="36"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="34"/>
+      <c r="A192" s="36"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="34"/>
+      <c r="A193" s="36"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="34"/>
+      <c r="A194" s="36"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="34"/>
+      <c r="A195" s="36"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="34"/>
+      <c r="A196" s="36"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="34"/>
+      <c r="A197" s="36"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="34"/>
+      <c r="A198" s="36"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="34"/>
+      <c r="A199" s="36"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="34"/>
+      <c r="A200" s="36"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="34"/>
+      <c r="A201" s="36"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="34"/>
+      <c r="A202" s="36"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="34"/>
+      <c r="A203" s="36"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="34"/>
+      <c r="A204" s="36"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="34"/>
+      <c r="A205" s="36"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="34"/>
+      <c r="A206" s="36"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="34"/>
+      <c r="A207" s="36"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="34"/>
+      <c r="A208" s="36"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="34"/>
+      <c r="A209" s="36"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="34"/>
+      <c r="A210" s="36"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="34"/>
+      <c r="A211" s="36"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="34"/>
+      <c r="A212" s="36"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="34"/>
+      <c r="A213" s="36"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="34"/>
+      <c r="A214" s="36"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="34"/>
+      <c r="A215" s="36"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="34"/>
+      <c r="A216" s="36"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="34"/>
+      <c r="A217" s="36"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="34"/>
+      <c r="A218" s="36"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="34"/>
+      <c r="A219" s="36"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="34"/>
+      <c r="A220" s="36"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
